--- a/output/supp_mat1_aft_review.xlsx
+++ b/output/supp_mat1_aft_review.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Species</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">Individual daily amount of Fe released (mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population annual amount of Fe released (t/yr)</t>
   </si>
 </sst>
 </file>
@@ -1689,6 +1692,110 @@
         <v>23</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.587110247359753</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.23295664684388</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.33430844989624</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8.11594556105497</v>
+      </c>
+      <c r="F50" t="n">
+        <v>23.444371317482</v>
+      </c>
+      <c r="G50" t="n">
+        <v>63.2582027791465</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.78882247068432</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.5718444457275</v>
+      </c>
+      <c r="D51" t="n">
+        <v>44.2982815970497</v>
+      </c>
+      <c r="E51" t="n">
+        <v>39.1496051060984</v>
+      </c>
+      <c r="F51" t="n">
+        <v>105.93113344351</v>
+      </c>
+      <c r="G51" t="n">
+        <v>316.978707440663</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="n">
+        <v>17.791895002178</v>
+      </c>
+      <c r="C52" t="n">
+        <v>59.8819606380825</v>
+      </c>
+      <c r="D52" t="n">
+        <v>150.933314004904</v>
+      </c>
+      <c r="E52" t="n">
+        <v>138.266491159281</v>
+      </c>
+      <c r="F52" t="n">
+        <v>315.041088638545</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1001.73448738387</v>
+      </c>
+      <c r="H52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.246637847412578</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.938326332276466</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.12472133084435</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.72755064827029</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.58765862046806</v>
+      </c>
+      <c r="G53" t="n">
+        <v>25.9129100560912</v>
+      </c>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
